--- a/biology/Histoire de la zoologie et de la botanique/Adolf_Remane/Adolf_Remane.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adolf_Remane/Adolf_Remane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolf Remane est un zoologiste allemand, né le 10 août 1898 à Krotoschin et mort le 22 décembre 1976 à Plön.
 Il enseigne à Kiel à partir de 1929, puis de 1934 à 1937 à Halle puis à nouveau à Kiel à partir de 1937. Il fonde alors l’Institut für Meereskunde au sein de l’université de Christian-Albrechts de Kiel. Il est le président en 1956 et 1957 la Verbands deutscher Biologen und biowissenschaftlicher Fachgesellschaften e.V. puis le musée de zoologie de Kiel.
@@ -512,7 +524,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adolf Remane : Das soziale Leben der Tiere. Hambourg : Rowohlt, 1960.
 Adolf Remane parmi d’autres : Systematische Zoologie. Stämme des Tierreichs. Stuttgart : G. Fischer Verlag, 1976.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue allemande de Wikipédia (version du 1er mars 2006).</t>
         </is>
